--- a/edu_stats_report2021/data/school_name_match.xlsx
+++ b/edu_stats_report2021/data/school_name_match.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>old_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,13 +165,21 @@
   </si>
   <si>
     <t>新华路小学</t>
+  </si>
+  <si>
+    <t>胜西高坎分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金沙清波分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,11 +228,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -332,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,20 +522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -536,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -544,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -552,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -560,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -568,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -576,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -584,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -592,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -600,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -608,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -616,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -624,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -632,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -640,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -648,7 +663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -656,12 +671,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -669,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -677,7 +695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -685,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -693,7 +711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -701,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -709,7 +727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -717,7 +735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -725,7 +743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -733,7 +751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -741,7 +759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -749,7 +767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -757,12 +775,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -770,7 +791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -778,7 +799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -786,7 +807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -802,12 +823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -816,12 +837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
